--- a/Zgc5 tlc tlcsrs2 tlcrad51 tlcrad51srs2 tlcrad52.xlsx
+++ b/Zgc5 tlc tlcsrs2 tlcrad51 tlcrad51srs2 tlcrad52.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Nature paper\Figure 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1169,7 +1169,19 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>1,000 cells/ml </a:t>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> growth curves </a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -1228,9 +1240,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1294,9 +1306,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1360,9 +1372,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1426,9 +1438,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1492,9 +1504,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1558,9 +1570,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1624,9 +1636,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1690,9 +1704,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1827,63 +1843,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t> ells per ml</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1926,536 +1886,9 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tlsd srs2d'!$A$79</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10^3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'tlsd srs2d'!$B$86:$D$86</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>115255.92640479955</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8094.7955061084949</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5996.4275078702367</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'tlsd srs2d'!$B$86:$D$86</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>115255.92640479955</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8094.7955061084949</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5996.4275078702367</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:val>
-            <c:numRef>
-              <c:f>'tlsd srs2d'!$B$79:$D$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-034E-4BE0-A006-89301FEBA39C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tlsd srs2d'!$A$80</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10^4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'tlsd srs2d'!$B$87:$D$87</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>704690.61093706719</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>280146.35843226151</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>37441.144289595177</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'tlsd srs2d'!$B$87:$D$87</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>704690.61093706719</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>280146.35843226151</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>37441.144289595177</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:val>
-            <c:numRef>
-              <c:f>'tlsd srs2d'!$B$80:$D$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>481500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-034E-4BE0-A006-89301FEBA39C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tlsd srs2d'!$A$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10^5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'tlsd srs2d'!$B$88:$D$88</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>19975015.778645653</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1512940.537968552</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>101734.86198377203</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'tlsd srs2d'!$B$88:$D$88</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>19975015.778645653</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1512940.537968552</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>101734.86198377203</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:val>
-            <c:numRef>
-              <c:f>'tlsd srs2d'!$B$81:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4825000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>365000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-034E-4BE0-A006-89301FEBA39C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="239909456"/>
-        <c:axId val="488297248"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="239909456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488297248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="488297248"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:min val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="239909456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2522,7 +1955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2603,6 +2036,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3745,6 +3179,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3867,6 +3302,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3976,7 +3412,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4051,6 +3487,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5533,6 +4970,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5639,6 +5077,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5706,7 +5145,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6322,7 +5761,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6938,7 +6377,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7647,7 +7086,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8276,7 +7715,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8906,7 +8345,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10409,7 +9848,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11025,866 +10464,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>tlc</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1800" b="0" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Δ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>10,000 cells/ml</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16245781511861934"/>
-          <c:y val="0.18171012714319801"/>
-          <c:w val="0.80420879486222374"/>
-          <c:h val="0.71786447148651877"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$31:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1930000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3700000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5830000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6495-4762-93BB-6DAD4DA0C926}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$32:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7600000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>390000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6495-4762-93BB-6DAD4DA0C926}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$33:$I$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12800000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14500000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13800000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14800000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6495-4762-93BB-6DAD4DA0C926}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$34:$I$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>15800000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6495-4762-93BB-6DAD4DA0C926}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$35:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2930000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7580000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17200000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6495-4762-93BB-6DAD4DA0C926}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T A1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$36:$I$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>13200000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4900000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>290000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16830000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16900000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17900000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6495-4762-93BB-6DAD4DA0C926}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T A2 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$37:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>16100000.000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3700000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>590000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3880000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13600000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12300000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6495-4762-93BB-6DAD4DA0C926}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T A3 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$38:$I$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>15400000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5650000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10170000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14300000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11700000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17900000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6495-4762-93BB-6DAD4DA0C926}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="343223728"/>
-        <c:axId val="343222480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="343223728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343222480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="343222480"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:min val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cells</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> per ml</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343223728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12500,7 +11080,847 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>tlc</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> growth curves </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1930000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5830000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6495-4762-93BB-6DAD4DA0C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7600000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6495-4762-93BB-6DAD4DA0C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6495-4762-93BB-6DAD4DA0C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6495-4762-93BB-6DAD4DA0C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2930000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7580000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6495-4762-93BB-6DAD4DA0C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4900000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16830000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6495-4762-93BB-6DAD4DA0C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16100000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>590000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3880000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6495-4762-93BB-6DAD4DA0C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A3 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5650000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10170000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6495-4762-93BB-6DAD4DA0C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="343223728"/>
+        <c:axId val="343222480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="343223728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343222480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343222480"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343223728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13191,7 +12611,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>tlc1</a:t>
+              <a:t>tlc</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" sz="1800" b="0" i="1" baseline="0">
@@ -13221,7 +12641,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> cells/ml passaged </a:t>
+              <a:t> growth curves </a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -13241,22 +12661,12 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.4168518109619769E-2"/>
-          <c:y val="0.1573346684265623"/>
-          <c:w val="0.88805364983400514"/>
-          <c:h val="0.63709435164535066"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="16"/>
+          <c:idx val="32"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -13308,12 +12718,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000038-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000040-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="17"/>
+          <c:idx val="33"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -13365,12 +12775,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000039-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000041-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="18"/>
+          <c:idx val="34"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -13422,12 +12832,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003A-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000042-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="19"/>
+          <c:idx val="35"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -13479,12 +12889,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003B-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000043-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="20"/>
+          <c:idx val="36"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -13536,12 +12946,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003C-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000044-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="21"/>
+          <c:idx val="37"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -13593,12 +13003,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003D-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000045-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="22"/>
+          <c:idx val="38"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
@@ -13657,12 +13067,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003E-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000046-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="23"/>
+          <c:idx val="39"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
@@ -13721,12 +13131,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003F-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000047-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="24"/>
+          <c:idx val="40"/>
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
@@ -13789,12 +13199,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000040-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000048-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="25"/>
+          <c:idx val="41"/>
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
@@ -13857,12 +13267,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000041-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000049-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="26"/>
+          <c:idx val="42"/>
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
@@ -13925,12 +13335,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000042-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000004A-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="27"/>
+          <c:idx val="43"/>
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
@@ -13993,12 +13403,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000043-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000004B-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="28"/>
+          <c:idx val="44"/>
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
@@ -14061,12 +13471,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000044-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000004C-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="29"/>
+          <c:idx val="45"/>
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
@@ -14129,12 +13539,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000045-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000004D-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="30"/>
+          <c:idx val="46"/>
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
@@ -14195,12 +13605,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000046-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000004E-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="31"/>
+          <c:idx val="47"/>
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
@@ -14261,12 +13671,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000047-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000004F-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="48"/>
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
@@ -14318,12 +13728,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000050-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
+          <c:idx val="49"/>
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
@@ -14375,12 +13785,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000051-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
+          <c:idx val="50"/>
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
@@ -14432,12 +13842,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000052-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
+          <c:idx val="51"/>
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
@@ -14489,12 +13899,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000053-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
+          <c:idx val="52"/>
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
@@ -14546,12 +13956,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000054-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="13"/>
+          <c:idx val="53"/>
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
@@ -14603,12 +14013,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000055-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="14"/>
+          <c:idx val="54"/>
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
@@ -14624,7 +14034,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -14667,12 +14077,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000056-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="15"/>
+          <c:idx val="55"/>
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
@@ -14731,12 +14141,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000057-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="56"/>
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
@@ -14750,9 +14160,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="45000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -14797,12 +14209,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000058-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="57"/>
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
@@ -14816,9 +14228,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="61000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -14863,12 +14277,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{00000059-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="58"/>
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
@@ -14882,9 +14296,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -14929,12 +14345,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000005A-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="59"/>
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
@@ -14948,9 +14364,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="92000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -14995,12 +14413,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000005B-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="60"/>
           <c:order val="28"/>
           <c:tx>
             <c:strRef>
@@ -15014,9 +14432,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="93000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -15061,12 +14481,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000031-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000005C-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="61"/>
           <c:order val="29"/>
           <c:tx>
             <c:strRef>
@@ -15080,9 +14500,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -15127,12 +14549,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000005D-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="62"/>
           <c:order val="30"/>
           <c:tx>
             <c:strRef>
@@ -15146,13 +14568,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -15195,12 +14615,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000035-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000005E-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="63"/>
           <c:order val="31"/>
           <c:tx>
             <c:strRef>
@@ -15214,9 +14634,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -15261,7 +14681,2027 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000037-523E-48A9-A19A-C86651D1E9AA}"/>
+              <c16:uniqueId val="{0000005F-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7750000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8300000.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16100000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16600000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10900000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$55:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>84300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="39"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A3 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>77300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1890000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1820000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="40"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="45000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="41"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="61000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7750000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="42"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8300000.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16100000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16600000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="43"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="92000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10900000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="44"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="93000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$55:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="45"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>84300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="46"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="47"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A3 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>77300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1890000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1820000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="48"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="49"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7750000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="50"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8300000.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16100000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16600000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="51"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10900000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="52"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$55:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="53"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>84300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="54"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="55"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A3 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>77300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1890000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1820000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="56"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="45000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="57"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="61000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7750000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="58"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8300000.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16100000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16600000.000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000035-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="59"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="92000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10900000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000037-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="60"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="93000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$55:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000039-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="61"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>84300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003B-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="62"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003D-4F29-404F-B521-AE6F09E73766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="63"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tlcd!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T A3 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tlcd!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>77300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1890000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1820000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003F-4F29-404F-B521-AE6F09E73766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15284,6 +16724,42 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transfer Day </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15334,7 +16810,7 @@
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -15395,6 +16871,33 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="343219984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -15404,11 +16907,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -16088,17 +17586,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.4395527124930295E-2"/>
-          <c:y val="9.36672372174117E-2"/>
-          <c:w val="0.89525964599106389"/>
-          <c:h val="0.81042320378475241"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -17395,7 +18883,7 @@
           <c:idx val="0"/>
           <c:order val="24"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -17450,7 +18938,7 @@
           <c:idx val="1"/>
           <c:order val="25"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -17505,7 +18993,7 @@
           <c:idx val="2"/>
           <c:order val="26"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -17615,7 +19103,7 @@
           <c:idx val="4"/>
           <c:order val="28"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -17670,7 +19158,7 @@
           <c:idx val="5"/>
           <c:order val="29"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -17728,7 +19216,7 @@
           <c:idx val="6"/>
           <c:order val="30"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -17783,7 +19271,7 @@
           <c:idx val="7"/>
           <c:order val="31"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -17841,7 +19329,7 @@
           <c:idx val="8"/>
           <c:order val="32"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -17896,7 +19384,7 @@
           <c:idx val="9"/>
           <c:order val="33"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -18006,7 +19494,7 @@
           <c:idx val="11"/>
           <c:order val="35"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -18061,7 +19549,7 @@
           <c:idx val="12"/>
           <c:order val="36"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -18235,7 +19723,7 @@
           <c:idx val="15"/>
           <c:order val="39"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -18348,7 +19836,7 @@
           <c:idx val="17"/>
           <c:order val="41"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -18403,7 +19891,7 @@
           <c:idx val="18"/>
           <c:order val="42"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -18458,7 +19946,7 @@
           <c:idx val="19"/>
           <c:order val="43"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -18513,7 +20001,7 @@
           <c:idx val="20"/>
           <c:order val="44"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -18568,7 +20056,7 @@
           <c:idx val="21"/>
           <c:order val="45"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -18626,7 +20114,7 @@
           <c:idx val="22"/>
           <c:order val="46"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -18684,7 +20172,7 @@
           <c:idx val="23"/>
           <c:order val="47"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -18757,6 +20245,47 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transfer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Days</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -18918,1052 +20447,6 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$51:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10800000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10250000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1250000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>370000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16300000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15700000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$52:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11200000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>630000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14300000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14800000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13300000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$53:$I$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10250000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1100000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>210000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8300000.0000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16100000.000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15300000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16600000.000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$54:$I$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>13600000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10900000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>780000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14800000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11900000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$55:$I$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2400000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>630000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16300000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17300000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17400000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T A1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$56:$I$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>84300000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>940000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1700000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17400000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18200000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20900000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T A2 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$57:$I$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>83300000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12700000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15600000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14700000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T A3 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$58:$I$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>77300000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10500000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1890000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1820000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10250000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15400000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20900000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tlcd!$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>tlcd!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tlcd!$B$59:$I$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>37481250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8575000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>952500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12551250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15250000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16350000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14862500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-819E-48C4-ABB2-29FEF7435EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="417860544"/>
-        <c:axId val="417860960"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="417860544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="417860960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="417860960"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="100000000"/>
-          <c:min val="10000"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417860544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -21036,7 +21519,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -21819,7 +22302,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -21906,6 +22389,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22324,6 +22808,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22396,6 +22881,572 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tlsd srs2d'!$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tlsd srs2d'!$B$86:$D$86</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>115255.92640479955</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8094.7955061084949</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5996.4275078702367</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tlsd srs2d'!$B$86:$D$86</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>115255.92640479955</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8094.7955061084949</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5996.4275078702367</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'tlsd srs2d'!$B$79:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-034E-4BE0-A006-89301FEBA39C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tlsd srs2d'!$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tlsd srs2d'!$B$87:$D$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>704690.61093706719</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>280146.35843226151</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>37441.144289595177</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tlsd srs2d'!$B$87:$D$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>704690.61093706719</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>280146.35843226151</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>37441.144289595177</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'tlsd srs2d'!$B$80:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>481500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-034E-4BE0-A006-89301FEBA39C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tlsd srs2d'!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tlsd srs2d'!$B$88:$D$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19975015.778645653</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1512940.537968552</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>101734.86198377203</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tlsd srs2d'!$B$88:$D$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19975015.778645653</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1512940.537968552</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>101734.86198377203</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'tlsd srs2d'!$B$81:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4825000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-034E-4BE0-A006-89301FEBA39C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="239909456"/>
+        <c:axId val="488297248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="239909456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488297248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488297248"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239909456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -22753,46 +23804,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -22954,6 +23965,12 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22990,12 +24007,6 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -27207,522 +28218,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -31886,13 +32381,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>444501</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -31916,15 +32411,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>528637</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>223837</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31998,36 +32493,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>443365</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>59418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>140380</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>107043</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -33110,8 +33575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:I59"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35517,8 +35982,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35526,7 +35990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
